--- a/todo.xlsx
+++ b/todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16571" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16573" uniqueCount="190">
   <si>
     <t>Change table design to match table-design.png</t>
   </si>
@@ -665,6 +665,12 @@
   <si>
     <t>Translation and glossary detail pages, add "Download" button (various formats such as as Word file, excel file, text file).</t>
   </si>
+  <si>
+    <t>Have two basic user accounts, honyakubu and non-honyakubu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Non-honyakubu can only see PCT translations (add a PCT-flag to the translation model?)</t>
+  </si>
 </sst>
 </file>
 
@@ -1079,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD188"/>
+  <dimension ref="A1:XFD190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -67371,7 +67377,7 @@
       </c>
     </row>
     <row r="150" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -67563,6 +67569,16 @@
     <row r="188" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A188" s="2" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A189" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A190" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16573" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16575" uniqueCount="192">
   <si>
     <t>Change table design to match table-design.png</t>
   </si>
@@ -671,6 +671,12 @@
   <si>
     <t xml:space="preserve">    Non-honyakubu can only see PCT translations (add a PCT-flag to the translation model?)</t>
   </si>
+  <si>
+    <t>BUG - loading spinner showing on search button when back page pressed</t>
+  </si>
+  <si>
+    <t>BUG - last resource not selected on dropdown menu when viewing form pages (only being selected on search result page)</t>
+  </si>
 </sst>
 </file>
 
@@ -1085,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD190"/>
+  <dimension ref="A1:XFD192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -67581,6 +67587,16 @@
         <v>189</v>
       </c>
     </row>
+    <row r="191" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A191" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A192" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16575" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16576" uniqueCount="193">
   <si>
     <t>Change table design to match table-design.png</t>
   </si>
@@ -677,6 +677,9 @@
   <si>
     <t>BUG - last resource not selected on dropdown menu when viewing form pages (only being selected on search result page)</t>
   </si>
+  <si>
+    <t>BUG - when copy to clipboard item clicked in table, don’t move to search bar (instead display tooltip "copied")</t>
+  </si>
 </sst>
 </file>
 
@@ -1091,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD192"/>
+  <dimension ref="A1:XFD193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A193" sqref="A193"/>
+      <selection activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -67597,6 +67600,11 @@
         <v>191</v>
       </c>
     </row>
+    <row r="193" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A193" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:XFD193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194"/>
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -67591,7 +67591,7 @@
       </c>
     </row>
     <row r="191" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="9" t="s">
         <v>190</v>
       </c>
     </row>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -675,10 +675,10 @@
     <t>BUG - loading spinner showing on search button when back page pressed</t>
   </si>
   <si>
-    <t>BUG - last resource not selected on dropdown menu when viewing form pages (only being selected on search result page)</t>
+    <t>BUG - when copy to clipboard item clicked in table, don’t move to search bar (instead display tooltip "copied")</t>
   </si>
   <si>
-    <t>BUG - when copy to clipboard item clicked in table, don’t move to search bar (instead display tooltip "copied")</t>
+    <t>BUG - last resource not selected on dropdown menu when viewing form pages (only being selected on search result page) = just use modals?</t>
   </si>
 </sst>
 </file>
@@ -67597,12 +67597,12 @@
     </row>
     <row r="192" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A193" s="2" t="s">
-        <v>192</v>
+      <c r="A193" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16576" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16580" uniqueCount="197">
   <si>
     <t>Change table design to match table-design.png</t>
   </si>
@@ -680,6 +680,18 @@
   <si>
     <t>BUG - last resource not selected on dropdown menu when viewing form pages (only being selected on search result page) = just use modals?</t>
   </si>
+  <si>
+    <t>BUG - in the entry create/update form, the list of glossaries provided includes all resources not just glossaries</t>
+  </si>
+  <si>
+    <t>BUG - the size of the monster glossary is a problem, particularly when redirecting thereto after creating a new entry therefor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           - only show the first 100 entries (and include warning of there are lots of entries)</t>
+  </si>
+  <si>
+    <t>Include links to reorder the resource content table (similar to the homepage table)</t>
+  </si>
 </sst>
 </file>
 
@@ -782,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -813,6 +825,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,9 +1112,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD193"/>
+  <dimension ref="A1:XFD197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
       <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
@@ -67605,6 +67623,26 @@
         <v>191</v>
       </c>
     </row>
+    <row r="194" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A194" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A195" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A196" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A197" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16580" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16582" uniqueCount="199">
   <si>
     <t>Change table design to match table-design.png</t>
   </si>
@@ -692,6 +692,12 @@
   <si>
     <t>Include links to reorder the resource content table (similar to the homepage table)</t>
   </si>
+  <si>
+    <t>BUG - since adding the notes field as a search target in addition to the source and target fields, the query string when included in the notes is not being highlighted (template tag problem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          - also need to rename the template tag folder from "resources" to "archive"</t>
+  </si>
 </sst>
 </file>
 
@@ -1112,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD197"/>
+  <dimension ref="A1:XFD199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -67643,6 +67649,16 @@
         <v>196</v>
       </c>
     </row>
+    <row r="198" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A198" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A199" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:XFD199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194"/>
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -67650,12 +67650,12 @@
       </c>
     </row>
     <row r="198" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="9" t="s">
         <v>198</v>
       </c>
     </row>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16582" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16587" uniqueCount="203">
   <si>
     <t>Change table design to match table-design.png</t>
   </si>
@@ -660,9 +660,6 @@
     </r>
   </si>
   <si>
-    <t>When uploading translations and glossaries, validate the content of each line before adding to the DB (see page 159 in two scoops, can validate using Form object, or use own validation code, e.g. check that object doesn’t already exist to avoid duplicate data)</t>
-  </si>
-  <si>
     <t>Translation and glossary detail pages, add "Download" button (various formats such as as Word file, excel file, text file).</t>
   </si>
   <si>
@@ -697,6 +694,21 @@
   </si>
   <si>
     <t xml:space="preserve">          - also need to rename the template tag folder from "resources" to "archive"</t>
+  </si>
+  <si>
+    <t>BUG - shouldn't be possible to manually create glossaries that have the same name</t>
+  </si>
+  <si>
+    <t>BUG - shouldn't be possible to manually create entries having the same source, text, and associated resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          - this should also be true when uploading a glossary (i.e. should check to see if entry already exists)</t>
+  </si>
+  <si>
+    <t>refactor: change Item to Entry</t>
+  </si>
+  <si>
+    <t>(Related to the above) When uploading translations and glossaries, validate the content of each line before adding to the DB (see page 159 in two scoops, can validate using Form object, or use own validation code, e.g. check that object doesn’t already exist to avoid duplicate data)</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD199"/>
+  <dimension ref="A1:XFD207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -66869,11 +66881,6 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
     <row r="43" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>143</v>
@@ -67071,7 +67078,7 @@
     </row>
     <row r="82" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="20.100000000000001" customHeight="1">
@@ -67606,57 +67613,87 @@
     </row>
     <row r="189" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A191" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A193" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A194" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A195" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A196" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A197" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A198" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A199" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A200" s="5" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A201" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A202" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A203" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A204" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A207" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
